--- a/m3/clip-lengths.xlsx
+++ b/m3/clip-lengths.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterkellner/repos/pluralsight-react-working-with-data/m3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226924B9-C6E5-944E-9664-F2C78DD32617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB71732C-9846-3243-8B79-10CFA1110D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="78660" yWindow="7560" windowWidth="28040" windowHeight="17440" xr2:uid="{CA364220-AA0F-3749-BD95-7435464136BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -393,7 +393,7 @@
   <dimension ref="B6:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,21 +493,33 @@
       <c r="C17">
         <v>12</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>13</v>
       </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>14</v>
       </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>15</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21">
@@ -517,7 +529,7 @@
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D24">
         <f>SUM(D6:D23)</f>
-        <v>45.5</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
